--- a/biology/Botanique/Principessa_di_Napoli/Principessa_di_Napoli.xlsx
+++ b/biology/Botanique/Principessa_di_Napoli/Principessa_di_Napoli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Principessa di Napoli'[2] est un cultivar de rosier hybride remontant[3] obtenu en Italie en 1897 par Massimiliano Lodi (1863-1930)[4] pour Gaetano Bonfiglioli[5] de Bologne qui l'introduit au commerce. Elle eut un grand succès jusqu'à la fin des années 1930. Cette rose rend hommage à la princesse de Naples, née princesse Hélène de Monténégro (1873-1952), qui venait d'épouser, le 24 octobre 1896, le prince de Naples, Victor-Emmanuel (1869-1947), futur roi d'Italie en 1900 et avant-dernier souverain de ce pays.
+'Principessa di Napoli' est un cultivar de rosier hybride remontant obtenu en Italie en 1897 par Massimiliano Lodi (1863-1930) pour Gaetano Bonfiglioli de Bologne qui l'introduit au commerce. Elle eut un grand succès jusqu'à la fin des années 1930. Cette rose rend hommage à la princesse de Naples, née princesse Hélène de Monténégro (1873-1952), qui venait d'épouser, le 24 octobre 1896, le prince de Naples, Victor-Emmanuel (1869-1947), futur roi d'Italie en 1900 et avant-dernier souverain de ce pays.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose fut saluée dès son obtention par la qualité de ses fleurs très grosses (26-40 pétales) et odorantes d'une couleur rose carné aux reflets argentés[6]. Les pétales de la fleur  sont à l'intérieur d'un rose crème, plus clair. Ses boutons sont longs et pointus. Elles fleurissent en solitaires, en forme de coupe s'épanouissant en rosette.
-Le buisson est en forme d'arbuste épineux et peut se palisser. Cette variété supporte les hivers froids (zone de rusticité 6b à 9b)[7]. Elle était cultivée avant la Seconde Guerre mondiale à la roseraie de L'Haÿ-les-Roses.
-Elle est issue d'un croisement 'La France' x 'Capitaine Christy'[8]. Elle ne doit être confondue avec la rose du même nom obtenue à San Remo en 1898 par l'obtenteur allemand, Paul Bräuer, d'un rose presque rouge sur fond crème issue de 'Safrano' x 'Duc de Magenta'[9], classée dans les roses thé[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose fut saluée dès son obtention par la qualité de ses fleurs très grosses (26-40 pétales) et odorantes d'une couleur rose carné aux reflets argentés. Les pétales de la fleur  sont à l'intérieur d'un rose crème, plus clair. Ses boutons sont longs et pointus. Elles fleurissent en solitaires, en forme de coupe s'épanouissant en rosette.
+Le buisson est en forme d'arbuste épineux et peut se palisser. Cette variété supporte les hivers froids (zone de rusticité 6b à 9b). Elle était cultivée avant la Seconde Guerre mondiale à la roseraie de L'Haÿ-les-Roses.
+Elle est issue d'un croisement 'La France' x 'Capitaine Christy'. Elle ne doit être confondue avec la rose du même nom obtenue à San Remo en 1898 par l'obtenteur allemand, Paul Bräuer, d'un rose presque rouge sur fond crème issue de 'Safrano' x 'Duc de Magenta', classée dans les roses thé.
 </t>
         </is>
       </c>
